--- a/report_outline_v3.xlsx
+++ b/report_outline_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/Data Analytics/6. Country Reports/Qatar-Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{D6EFBE12-7945-E547-8CC2-6CF5140A6CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EEB8D8A-B6D6-5D49-88B8-A021F5B59537}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="8_{D6EFBE12-7945-E547-8CC2-6CF5140A6CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{097FF964-22DC-2747-AD77-56ECDBE8F6F5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="2" xr2:uid="{6B97058B-77ED-4691-9154-36ED9694847A}"/>
   </bookViews>
   <sheets>
     <sheet name="general_info" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="222">
   <si>
     <t>Cover</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Figure_7</t>
   </si>
   <si>
-    <t>Figure_8</t>
-  </si>
-  <si>
     <t>ProjectDesign</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>Figure_3</t>
   </si>
   <si>
-    <t>1, 2</t>
-  </si>
-  <si>
     <t>Figure_4</t>
   </si>
   <si>
@@ -462,9 +456,6 @@
     <t>Perceptions of the Criminal Justice System in Qatar</t>
   </si>
   <si>
-    <t>Radar</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -477,24 +468,6 @@
     <t>Edgebars</t>
   </si>
   <si>
-    <t>Percentage of respondents who agree or strongly agree with the following statements…</t>
-  </si>
-  <si>
-    <t>q46c_G2, q46f_G2, q46c_G1, q46e_G2, q46d_G2, q46a_G2, q46d_G1, q46e_G1, q46h_G2, q46b_G2</t>
-  </si>
-  <si>
-    <t>Discrimination Experiences</t>
-  </si>
-  <si>
-    <t>discrimination1</t>
-  </si>
-  <si>
-    <t>Waffle</t>
-  </si>
-  <si>
-    <t>Percentage of respondents who think that the main reason why they experience discrimination is due to their…</t>
-  </si>
-  <si>
     <t>q48d_G1, EXP_q22f_G1, EXP_q22h_G1, EXP_q22k_G2_inv, EXP_q22j_G2_inv</t>
   </si>
   <si>
@@ -522,24 +495,9 @@
     <t>pol4</t>
   </si>
   <si>
-    <t>pff1</t>
-  </si>
-  <si>
-    <t>dis1</t>
-  </si>
-  <si>
-    <t>dis3</t>
-  </si>
-  <si>
     <t>unique_id</t>
   </si>
   <si>
-    <t>Perceptions of Fundamental Freedoms</t>
-  </si>
-  <si>
-    <t>Reasons Why People Feel Discriminated</t>
-  </si>
-  <si>
     <t>Gauge</t>
   </si>
   <si>
@@ -549,12 +507,6 @@
     <t>A lot, Some, Little, No trust, No answer</t>
   </si>
   <si>
-    <t>#18538E, #46B5FF, #FFC818, #FF7900, #d9d9d9</t>
-  </si>
-  <si>
-    <t>#FF7900, #FFC818, #46B5FF, #18538E, #d9d9d9</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -600,12 +552,6 @@
     <t>cjs6</t>
   </si>
   <si>
-    <t>#2a2a94, #B9B6B9</t>
-  </si>
-  <si>
-    <t>Horizontal bars</t>
-  </si>
-  <si>
     <t>Is effective in bringing people who commit crimes to justice.</t>
   </si>
   <si>
@@ -624,12 +570,6 @@
     <t>Deals with cases prompty and efficiently.</t>
   </si>
   <si>
-    <t>q17_1, q17_2, q17_3, q17_4, q17_5, q17_7, q17_10, q17_11, q17_12, q17_13, q17_14</t>
-  </si>
-  <si>
-    <t>Percentage of respondents in Qatar who reported having experienced some form of discrimination in the last year</t>
-  </si>
-  <si>
     <t>pol1</t>
   </si>
   <si>
@@ -645,18 +585,6 @@
     <t>Very well, Fairly well, Fairly badly, Very badly, No answer</t>
   </si>
   <si>
-    <t>Figure_9</t>
-  </si>
-  <si>
-    <t>Perceptions on the Accountability of the Police</t>
-  </si>
-  <si>
-    <t>Percentage of respondents who answered very well, fairly well, fairly badly, or very badly to the following statements…</t>
-  </si>
-  <si>
-    <t>Figure_10</t>
-  </si>
-  <si>
     <t>Percentage of respondents who answered always, often, rarely, or never to the following statements…</t>
   </si>
   <si>
@@ -729,9 +657,6 @@
     <t>Chapter 2: Thematic Findings from the General Public</t>
   </si>
   <si>
-    <t>insights</t>
-  </si>
-  <si>
     <t>Thematic Findings from the General Public</t>
   </si>
   <si>
@@ -748,6 +673,39 @@
   </si>
   <si>
     <t>Section II: Justice System</t>
+  </si>
+  <si>
+    <t>roli6</t>
+  </si>
+  <si>
+    <t>Qatar Country Profile</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who say the police fulfill the following functions very well, fairly well, badly, or very badly</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who say the police always, often, rarely, or never fulfill the following principles…</t>
+  </si>
+  <si>
+    <t>Perceptions on Police Adherence to Due Process</t>
+  </si>
+  <si>
+    <t>Source: WJP General Population Poll 2024&lt;br&gt;Note: The questions on serving the interests of regular citizens and serving the interest of the community were measured following a Likert scale of four points: "Strongly agree", "Agree", "Disagree", and "Strongly disagree".</t>
+  </si>
+  <si>
+    <t>#18538E, #46B5FF, #FFC818, #FF7900, #CCCCCC</t>
+  </si>
+  <si>
+    <t>#FF7900, #FFC818, #46B5FF, #18538E, #CCCCCC</t>
+  </si>
+  <si>
+    <t>roli7</t>
+  </si>
+  <si>
+    <t>insights1</t>
+  </si>
+  <si>
+    <t>insights2</t>
   </si>
 </sst>
 </file>
@@ -798,18 +756,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -825,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,10 +797,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1258,8 +1206,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}" name="Table14" displayName="Table14" ref="A1:K31" totalsRowShown="0" dataDxfId="31">
-  <autoFilter ref="A1:K31" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}" name="Table14" displayName="Table14" ref="A1:K34" totalsRowShown="0" dataDxfId="31">
+  <autoFilter ref="A1:K34" xr:uid="{8B14E03D-B076-4E47-842E-3221DD393923}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9CFB6294-2D1F-459C-958F-167AA1ADC69D}" name="id"/>
     <tableColumn id="2" xr3:uid="{2E5F114E-6AFB-4EA6-A519-E85A2FF2C521}" name="page"/>
@@ -1278,8 +1226,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}" name="Table53" displayName="Table53" ref="A1:R19" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="A1:R19" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}" name="Table53" displayName="Table53" ref="A1:R16" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="A1:R16" xr:uid="{F4E522B1-3123-499E-83E5-BBB41A9C0B72}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{D92A50FF-F655-438A-821F-D4E0A6773705}" name="id" dataDxfId="28"/>
     <tableColumn id="3" xr3:uid="{83BE05A7-E625-7D4B-B471-5B9EF89254A6}" name="unique_id"/>
@@ -1664,7 +1612,7 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1672,39 +1620,39 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1717,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B32341-F9AC-424D-8D69-9ABCF2FF7D4F}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1746,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1758,10 +1706,10 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
@@ -1874,13 +1822,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1909,13 +1857,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -1944,13 +1892,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1979,13 +1927,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -2014,13 +1962,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -2049,19 +1997,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2079,24 +2027,24 @@
         <v>11</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2114,24 +2062,24 @@
         <v>11</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2149,24 +2097,24 @@
         <v>11</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2184,33 +2132,33 @@
         <v>11</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -2219,33 +2167,33 @@
         <v>11</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -2254,24 +2202,24 @@
         <v>11</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -2289,18 +2237,18 @@
         <v>11</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -2329,22 +2277,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2356,56 +2304,56 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -2434,54 +2382,54 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2496,33 +2444,33 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2531,62 +2479,62 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -2595,33 +2543,33 @@
         <v>0</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2633,24 +2581,24 @@
         <v>0</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -2679,16 +2627,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -2709,56 +2657,56 @@
         <v>11</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -2767,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -2779,41 +2727,146 @@
         <v>11</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2828,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8942074E-1171-4680-A697-1A8E37014FFA}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2852,19 +2905,19 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
         <v>27</v>
@@ -2873,87 +2926,87 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
-        <v>70</v>
-      </c>
       <c r="K1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
         <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
-        <v>52</v>
-      </c>
       <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
         <v>65</v>
-      </c>
-      <c r="R1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>122</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
         <v>120</v>
       </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
       <c r="N2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" s="1">
         <v>2024</v>
@@ -2961,55 +3014,55 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" t="s">
         <v>119</v>
       </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
         <v>120</v>
       </c>
-      <c r="G3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>121</v>
-      </c>
       <c r="N3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R3" s="1">
         <v>2024</v>
@@ -3017,55 +3070,55 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" t="s">
         <v>154</v>
       </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O4" t="s">
-        <v>168</v>
-      </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R4" s="1">
         <v>2024</v>
@@ -3073,55 +3126,55 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
         <v>120</v>
       </c>
-      <c r="G5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>121</v>
-      </c>
       <c r="N5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O5" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="Q5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R5" s="1">
         <v>2024</v>
@@ -3129,55 +3182,55 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
         <v>120</v>
       </c>
-      <c r="G6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" t="s">
-        <v>121</v>
-      </c>
       <c r="N6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O6" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="Q6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R6" s="1">
         <v>2024</v>
@@ -3185,55 +3238,55 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="J7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R7" s="1">
         <v>2024</v>
@@ -3241,55 +3294,55 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R8" s="1">
         <v>2024</v>
@@ -3297,55 +3350,55 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R9" s="1">
         <v>2024</v>
@@ -3353,55 +3406,55 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
         <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R10" s="1">
         <v>2024</v>
@@ -3409,55 +3462,55 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J11" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
       </c>
       <c r="M11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O11" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R11" s="1">
         <v>2024</v>
@@ -3465,55 +3518,55 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J12" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
         <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R12" s="1">
         <v>2024</v>
@@ -3521,55 +3574,55 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
         <v>120</v>
       </c>
-      <c r="G13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" t="s">
-        <v>121</v>
-      </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R13" s="1">
         <v>2024</v>
@@ -3580,52 +3633,52 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
         <v>120</v>
       </c>
-      <c r="G14" t="s">
-        <v>199</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" t="s">
-        <v>121</v>
-      </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R14" s="1">
         <v>2024</v>
@@ -3636,52 +3689,52 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
         <v>120</v>
       </c>
-      <c r="G15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" t="s">
-        <v>121</v>
-      </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="Q15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R15" s="1">
         <v>2024</v>
@@ -3692,22 +3745,22 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -3719,195 +3772,27 @@
         <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L16" t="s">
         <v>11</v>
       </c>
       <c r="M16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
         <v>11</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R16" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" t="s">
-        <v>140</v>
-      </c>
-      <c r="N17" t="s">
-        <v>141</v>
-      </c>
-      <c r="O17" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R17" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="10">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" t="s">
-        <v>187</v>
-      </c>
-      <c r="N19" t="s">
-        <v>141</v>
-      </c>
-      <c r="O19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="1">
         <v>2024</v>
       </c>
     </row>
@@ -3937,100 +3822,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4073,30 +3958,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4123,6 +4008,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -4371,7 +4267,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4380,18 +4276,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87354EAB-4CC7-4750-AE59-FEDEECBA27EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4410,27 +4312,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF641CD-F15C-42E5-B454-EB7169F6F499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1EE7D2B-72B9-4B29-A99A-A2518AB2EE2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>